--- a/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T14:42:58+00:00</t>
+    <t>2022-04-27T15:54:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T15:54:04+00:00</t>
+    <t>2022-04-28T14:45:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -8127,7 +8127,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>270</v>
       </c>
@@ -8137,13 +8137,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>75</v>
@@ -9774,7 +9774,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>309</v>
       </c>
@@ -9784,13 +9784,13 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>75</v>

--- a/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/PharmaceuticalProduct</t>
+    <t>https://costateixeira.github.io/be-medication-concepts/StructureDefinition/PharmaceuticalProduct</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T14:45:54+00:00</t>
+    <t>2022-04-28T14:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T14:58:18+00:00</t>
+    <t>2022-04-28T15:01:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -546,7 +546,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
+    <t xml:space="preserve">pattern:system}
 </t>
   </si>
   <si>

--- a/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T15:01:01+00:00</t>
+    <t>2022-04-28T16:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T16:52:22+00:00</t>
+    <t>2022-05-03T15:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6339" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6339" uniqueCount="520">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:55:49+00:00</t>
+    <t>2022-05-04T08:32:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1076,6 +1076,10 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:coding.system}
+</t>
   </si>
   <si>
     <t>MedicationKnowledge.intendedRoute.id</t>
@@ -1979,7 +1983,7 @@
     <col min="24" max="24" width="62.12109375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="59.5859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.93359375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -10724,7 +10728,7 @@
         <v>75</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>169</v>
+        <v>341</v>
       </c>
       <c r="AB79" s="2"/>
       <c r="AC79" t="s" s="2">
@@ -10874,7 +10878,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10983,7 +10987,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11094,7 +11098,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11207,7 +11211,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11316,7 +11320,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11427,7 +11431,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11435,7 +11439,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>83</v>
@@ -11472,7 +11476,7 @@
         <v>75</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>75</v>
@@ -11540,7 +11544,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11651,7 +11655,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11762,7 +11766,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11873,7 +11877,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11986,7 +11990,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12210,7 +12214,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12319,7 +12323,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12430,7 +12434,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12543,7 +12547,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12652,7 +12656,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12763,7 +12767,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12771,7 +12775,7 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>83</v>
@@ -12808,7 +12812,7 @@
         <v>75</v>
       </c>
       <c r="R98" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>75</v>
@@ -12876,7 +12880,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12987,7 +12991,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13098,7 +13102,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13209,7 +13213,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13322,7 +13326,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13435,7 +13439,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13461,10 +13465,10 @@
         <v>274</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13515,7 +13519,7 @@
         <v>75</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>76</v>
@@ -13544,7 +13548,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13653,7 +13657,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13764,7 +13768,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13877,7 +13881,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13903,10 +13907,10 @@
         <v>141</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13957,7 +13961,7 @@
         <v>75</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>83</v>
@@ -13986,7 +13990,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14012,10 +14016,10 @@
         <v>85</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14066,7 +14070,7 @@
         <v>75</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>76</v>
@@ -14095,7 +14099,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14118,13 +14122,13 @@
         <v>75</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14175,7 +14179,7 @@
         <v>75</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>83</v>
@@ -14204,7 +14208,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14230,10 +14234,10 @@
         <v>274</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14284,7 +14288,7 @@
         <v>75</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>76</v>
@@ -14313,7 +14317,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14422,7 +14426,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14533,7 +14537,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14646,7 +14650,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14672,10 +14676,10 @@
         <v>141</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14726,7 +14730,7 @@
         <v>75</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>76</v>
@@ -14755,7 +14759,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14781,10 +14785,10 @@
         <v>85</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14835,7 +14839,7 @@
         <v>75</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>76</v>
@@ -14864,7 +14868,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14890,10 +14894,10 @@
         <v>274</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -14944,7 +14948,7 @@
         <v>75</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>76</v>
@@ -14973,7 +14977,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15082,7 +15086,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15193,7 +15197,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15306,7 +15310,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15332,10 +15336,10 @@
         <v>274</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15386,7 +15390,7 @@
         <v>75</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>76</v>
@@ -15415,7 +15419,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15524,7 +15528,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15635,7 +15639,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15748,7 +15752,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15774,10 +15778,10 @@
         <v>141</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15828,7 +15832,7 @@
         <v>75</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>83</v>
@@ -15857,7 +15861,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15880,13 +15884,13 @@
         <v>75</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15937,7 +15941,7 @@
         <v>75</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>83</v>
@@ -15966,7 +15970,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15989,13 +15993,13 @@
         <v>75</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -16046,7 +16050,7 @@
         <v>75</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>76</v>
@@ -16075,7 +16079,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16101,10 +16105,10 @@
         <v>274</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -16155,7 +16159,7 @@
         <v>75</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>76</v>
@@ -16184,7 +16188,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16293,7 +16297,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16404,7 +16408,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16517,7 +16521,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16540,13 +16544,13 @@
         <v>75</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -16597,7 +16601,7 @@
         <v>75</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>83</v>
@@ -16626,7 +16630,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16652,10 +16656,10 @@
         <v>85</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -16706,7 +16710,7 @@
         <v>75</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>76</v>
@@ -16735,7 +16739,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16761,10 +16765,10 @@
         <v>274</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16815,7 +16819,7 @@
         <v>75</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>76</v>
@@ -16844,7 +16848,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16953,7 +16957,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17064,7 +17068,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17177,7 +17181,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17203,10 +17207,10 @@
         <v>141</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -17257,7 +17261,7 @@
         <v>75</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>83</v>
@@ -17286,7 +17290,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17312,10 +17316,10 @@
         <v>141</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -17366,7 +17370,7 @@
         <v>75</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>76</v>
@@ -17395,7 +17399,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17421,10 +17425,10 @@
         <v>274</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -17475,7 +17479,7 @@
         <v>75</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>76</v>
@@ -17504,7 +17508,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17613,7 +17617,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17724,7 +17728,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17837,7 +17841,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17863,10 +17867,10 @@
         <v>141</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -17896,10 +17900,10 @@
         <v>145</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>75</v>
@@ -17917,7 +17921,7 @@
         <v>75</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>76</v>
@@ -17946,7 +17950,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17972,10 +17976,10 @@
         <v>265</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -18026,7 +18030,7 @@
         <v>75</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>76</v>
@@ -18055,7 +18059,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18081,10 +18085,10 @@
         <v>274</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -18135,7 +18139,7 @@
         <v>75</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>76</v>
@@ -18164,7 +18168,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18273,7 +18277,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18384,7 +18388,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18497,7 +18501,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18523,10 +18527,10 @@
         <v>141</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -18556,10 +18560,10 @@
         <v>145</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>75</v>
@@ -18577,7 +18581,7 @@
         <v>75</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>76</v>
@@ -18606,7 +18610,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18629,16 +18633,16 @@
         <v>75</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
@@ -18688,7 +18692,7 @@
         <v>75</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>76</v>
@@ -18717,7 +18721,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18740,13 +18744,13 @@
         <v>75</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -18797,7 +18801,7 @@
         <v>75</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>76</v>
@@ -18826,7 +18830,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18852,10 +18856,10 @@
         <v>274</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -18906,7 +18910,7 @@
         <v>75</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>76</v>
@@ -18935,7 +18939,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19044,7 +19048,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19155,7 +19159,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19268,7 +19272,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19294,10 +19298,10 @@
         <v>234</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -19348,7 +19352,7 @@
         <v>75</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>83</v>
@@ -19377,7 +19381,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19403,10 +19407,10 @@
         <v>274</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -19457,7 +19461,7 @@
         <v>75</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>76</v>
@@ -19486,7 +19490,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19595,7 +19599,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19706,7 +19710,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19819,7 +19823,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19845,10 +19849,10 @@
         <v>141</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -19899,7 +19903,7 @@
         <v>75</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>83</v>
@@ -19928,7 +19932,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -19954,10 +19958,10 @@
         <v>207</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
@@ -20008,7 +20012,7 @@
         <v>75</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>83</v>
@@ -20037,7 +20041,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20063,10 +20067,10 @@
         <v>274</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -20117,7 +20121,7 @@
         <v>75</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>76</v>
@@ -20146,7 +20150,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20255,7 +20259,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20366,7 +20370,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20479,7 +20483,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20505,10 +20509,10 @@
         <v>141</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -20559,7 +20563,7 @@
         <v>75</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>83</v>
@@ -20588,7 +20592,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20614,10 +20618,10 @@
         <v>274</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -20668,7 +20672,7 @@
         <v>75</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>76</v>
@@ -20697,7 +20701,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20806,7 +20810,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20917,7 +20921,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21030,7 +21034,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21056,10 +21060,10 @@
         <v>265</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -21110,7 +21114,7 @@
         <v>75</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>83</v>
@@ -21139,7 +21143,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21162,13 +21166,13 @@
         <v>75</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -21219,7 +21223,7 @@
         <v>75</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>76</v>
@@ -21248,7 +21252,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21274,10 +21278,10 @@
         <v>274</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -21328,7 +21332,7 @@
         <v>75</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>76</v>
@@ -21357,7 +21361,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -21466,7 +21470,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -21577,7 +21581,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -21690,7 +21694,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -21716,10 +21720,10 @@
         <v>265</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
@@ -21770,7 +21774,7 @@
         <v>75</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>76</v>
@@ -21799,7 +21803,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -21825,10 +21829,10 @@
         <v>265</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
@@ -21879,7 +21883,7 @@
         <v>75</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>76</v>
@@ -21908,7 +21912,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -21931,13 +21935,13 @@
         <v>75</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
@@ -21988,7 +21992,7 @@
         <v>75</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>76</v>

--- a/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T08:32:36+00:00</t>
+    <t>2022-05-13T09:57:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T09:57:30+00:00</t>
+    <t>2022-05-13T12:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T12:02:47+00:00</t>
+    <t>2022-05-13T12:43:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T12:43:14+00:00</t>
+    <t>2022-05-13T14:46:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/branches/master/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T14:46:23+00:00</t>
+    <t>2022-05-13T14:52:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
